--- a/3_Component_Results/INVINV/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ME</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1796645312452277</v>
+        <v>-0.1380044728926245</v>
       </c>
       <c r="C2">
-        <v>0.2162137429663701</v>
+        <v>0.4405518369217296</v>
       </c>
       <c r="D2">
-        <v>0.0686949469204866</v>
+        <v>0.3098877474931226</v>
       </c>
       <c r="E2">
-        <v>0.2620972089139573</v>
+        <v>0.5566756214287838</v>
       </c>
       <c r="F2">
-        <v>0.1980323291129835</v>
+        <v>0.5596561568957058</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -467,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.1931502998101954</v>
+        <v>-0.05072747431594977</v>
       </c>
       <c r="C3">
-        <v>0.2399855085347064</v>
+        <v>0.3686789333054596</v>
       </c>
       <c r="D3">
-        <v>0.08114761428523178</v>
+        <v>0.2339459977537088</v>
       </c>
       <c r="E3">
-        <v>0.2848642032359134</v>
+        <v>0.483679643724758</v>
       </c>
       <c r="F3">
-        <v>0.2179310838296564</v>
+        <v>0.5006533543232978</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -490,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.2117708764634233</v>
+        <v>-0.05721685844930368</v>
       </c>
       <c r="C4">
-        <v>0.2566542378094422</v>
+        <v>0.4206015753809266</v>
       </c>
       <c r="D4">
-        <v>0.08894841454518504</v>
+        <v>0.2672981648104081</v>
       </c>
       <c r="E4">
-        <v>0.2982422078532565</v>
+        <v>0.5170088633770297</v>
       </c>
       <c r="F4">
-        <v>0.2193416026378577</v>
+        <v>0.5366811099065004</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -513,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.2717841112587465</v>
+        <v>-0.07739811459342891</v>
       </c>
       <c r="C5">
-        <v>0.2717841112587465</v>
+        <v>0.4504919024182757</v>
       </c>
       <c r="D5">
-        <v>0.09585635103494129</v>
+        <v>0.251819281882534</v>
       </c>
       <c r="E5">
-        <v>0.309606768393298</v>
+        <v>0.5018159840843395</v>
       </c>
       <c r="F5">
-        <v>0.155527240998026</v>
+        <v>0.5200112451802442</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -536,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.3102912207253401</v>
+        <v>-0.05962591978527489</v>
       </c>
       <c r="C6">
-        <v>0.3102912207253401</v>
+        <v>0.4241150868043847</v>
       </c>
       <c r="D6">
-        <v>0.132045264107963</v>
+        <v>0.2659677999092564</v>
       </c>
       <c r="E6">
-        <v>0.3633803298308303</v>
+        <v>0.515720660735302</v>
       </c>
       <c r="F6">
-        <v>0.1993451012377538</v>
+        <v>0.5399717581082021</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -559,22 +562,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.2930070959527967</v>
+        <v>-0.06396073784541235</v>
       </c>
       <c r="C7">
-        <v>0.2930070959527967</v>
+        <v>0.4341613455797451</v>
       </c>
       <c r="D7">
-        <v>0.1011565941730417</v>
+        <v>0.2840886535732064</v>
       </c>
       <c r="E7">
-        <v>0.3180512445708107</v>
+        <v>0.5329996750216706</v>
       </c>
       <c r="F7">
-        <v>0.1336188929134223</v>
+        <v>0.5612462804205578</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -582,22 +585,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.3647219356402081</v>
+        <v>0.01200689806893836</v>
       </c>
       <c r="C8">
-        <v>0.3647219356402081</v>
+        <v>0.4563415053098694</v>
       </c>
       <c r="D8">
-        <v>0.1447999404304558</v>
+        <v>0.2743301623456585</v>
       </c>
       <c r="E8">
-        <v>0.3805258735361576</v>
+        <v>0.5237653695555468</v>
       </c>
       <c r="F8">
-        <v>0.1253148040912203</v>
+        <v>0.5736054358993686</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -605,18 +608,41 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.4796129543031131</v>
+        <v>-0.5577316861920555</v>
       </c>
       <c r="C9">
-        <v>0.4796129543031131</v>
+        <v>0.5577316861920555</v>
       </c>
       <c r="D9">
-        <v>0.2300285859353601</v>
+        <v>0.3432890341754003</v>
       </c>
       <c r="E9">
-        <v>0.4796129543031131</v>
+        <v>0.5859087251231204</v>
+      </c>
+      <c r="F9">
+        <v>0.2198558632130385</v>
       </c>
       <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>-0.7745672082728081</v>
+      </c>
+      <c r="C10">
+        <v>0.7745672082728081</v>
+      </c>
+      <c r="D10">
+        <v>0.5999543601315317</v>
+      </c>
+      <c r="E10">
+        <v>0.7745672082728081</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>

--- a/3_Component_Results/INVINV/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -447,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1380044728926245</v>
+        <v>0.0864294738795979</v>
       </c>
       <c r="C2">
-        <v>0.4405518369217296</v>
+        <v>0.1717255535034242</v>
       </c>
       <c r="D2">
-        <v>0.3098877474931226</v>
+        <v>0.05132172044861762</v>
       </c>
       <c r="E2">
-        <v>0.5566756214287838</v>
+        <v>0.2265429770454551</v>
       </c>
       <c r="F2">
-        <v>0.5596561568957058</v>
+        <v>0.2173128427139068</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -470,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05072747431594977</v>
+        <v>0.1015794586745889</v>
       </c>
       <c r="C3">
-        <v>0.3686789333054596</v>
+        <v>0.1777261608473147</v>
       </c>
       <c r="D3">
-        <v>0.2339459977537088</v>
+        <v>0.06528206036901001</v>
       </c>
       <c r="E3">
-        <v>0.483679643724758</v>
+        <v>0.255503542771935</v>
       </c>
       <c r="F3">
-        <v>0.5006533543232978</v>
+        <v>0.244016352129155</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -493,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05721685844930368</v>
+        <v>0.09564297872977319</v>
       </c>
       <c r="C4">
-        <v>0.4206015753809266</v>
+        <v>0.182775340538003</v>
       </c>
       <c r="D4">
-        <v>0.2672981648104081</v>
+        <v>0.07239544141620145</v>
       </c>
       <c r="E4">
-        <v>0.5170088633770297</v>
+        <v>0.2690640098864979</v>
       </c>
       <c r="F4">
-        <v>0.5366811099065004</v>
+        <v>0.2626740711899914</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -516,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.07739811459342891</v>
+        <v>0.0515887520981297</v>
       </c>
       <c r="C5">
-        <v>0.4504919024182757</v>
+        <v>0.1373511933772956</v>
       </c>
       <c r="D5">
-        <v>0.251819281882534</v>
+        <v>0.03807726663693461</v>
       </c>
       <c r="E5">
-        <v>0.5018159840843395</v>
+        <v>0.1951339709966838</v>
       </c>
       <c r="F5">
-        <v>0.5200112451802442</v>
+        <v>0.1973764272229122</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -539,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.05962591978527489</v>
+        <v>0.03412360743610758</v>
       </c>
       <c r="C6">
-        <v>0.4241150868043847</v>
+        <v>0.1315810182071815</v>
       </c>
       <c r="D6">
-        <v>0.2659677999092564</v>
+        <v>0.02988307038476774</v>
       </c>
       <c r="E6">
-        <v>0.515720660735302</v>
+        <v>0.1728672044801088</v>
       </c>
       <c r="F6">
-        <v>0.5399717581082021</v>
+        <v>0.1786326142932414</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -562,19 +562,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.06396073784541235</v>
+        <v>0.03856004825347423</v>
       </c>
       <c r="C7">
-        <v>0.4341613455797451</v>
+        <v>0.1426784820072856</v>
       </c>
       <c r="D7">
-        <v>0.2840886535732064</v>
+        <v>0.04033731687300466</v>
       </c>
       <c r="E7">
-        <v>0.5329996750216706</v>
+        <v>0.2008415217852241</v>
       </c>
       <c r="F7">
-        <v>0.5612462804205578</v>
+        <v>0.2090615806303401</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -585,19 +585,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.01200689806893836</v>
+        <v>0.06589614311488577</v>
       </c>
       <c r="C8">
-        <v>0.4563415053098694</v>
+        <v>0.08267801794971415</v>
       </c>
       <c r="D8">
-        <v>0.2743301623456585</v>
+        <v>0.01154809474451304</v>
       </c>
       <c r="E8">
-        <v>0.5237653695555468</v>
+        <v>0.107462061884709</v>
       </c>
       <c r="F8">
-        <v>0.5736054358993686</v>
+        <v>0.09298898687755791</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -608,19 +608,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.5577316861920555</v>
+        <v>-0.03841838264255042</v>
       </c>
       <c r="C9">
-        <v>0.5577316861920555</v>
+        <v>0.03841838264255042</v>
       </c>
       <c r="D9">
-        <v>0.3432890341754003</v>
+        <v>0.001596828758587614</v>
       </c>
       <c r="E9">
-        <v>0.5859087251231204</v>
+        <v>0.03996033982072242</v>
       </c>
       <c r="F9">
-        <v>0.2198558632130385</v>
+        <v>0.01346420998712108</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -631,16 +631,16 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.7745672082728081</v>
+        <v>-0.02233679963354765</v>
       </c>
       <c r="C10">
-        <v>0.7745672082728081</v>
+        <v>0.02233679963354765</v>
       </c>
       <c r="D10">
-        <v>0.5999543601315317</v>
+        <v>0.0004989326178692543</v>
       </c>
       <c r="E10">
-        <v>0.7745672082728081</v>
+        <v>0.02233679963354765</v>
       </c>
       <c r="G10">
         <v>1</v>

--- a/3_Component_Results/INVINV/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0864294738795979</v>
+        <v>0.003902179103014683</v>
       </c>
       <c r="C2">
-        <v>0.1717255535034242</v>
+        <v>0.4110727462040676</v>
       </c>
       <c r="D2">
-        <v>0.05132172044861762</v>
+        <v>0.3428415174671495</v>
       </c>
       <c r="E2">
-        <v>0.2265429770454551</v>
+        <v>0.5855267009002659</v>
       </c>
       <c r="F2">
-        <v>0.2173128427139068</v>
+        <v>0.5913398483737633</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1015794586745889</v>
+        <v>0.1114323317728629</v>
       </c>
       <c r="C3">
-        <v>0.1777261608473147</v>
+        <v>0.3819837740696647</v>
       </c>
       <c r="D3">
-        <v>0.06528206036901001</v>
+        <v>0.3070771422459426</v>
       </c>
       <c r="E3">
-        <v>0.255503542771935</v>
+        <v>0.5541454161553108</v>
       </c>
       <c r="F3">
-        <v>0.244016352129155</v>
+        <v>0.548336982715814</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.09564297872977319</v>
+        <v>0.0253973765991602</v>
       </c>
       <c r="C4">
-        <v>0.182775340538003</v>
+        <v>0.4132096390943262</v>
       </c>
       <c r="D4">
-        <v>0.07239544141620145</v>
+        <v>0.334517719201454</v>
       </c>
       <c r="E4">
-        <v>0.2690640098864979</v>
+        <v>0.5783750679286357</v>
       </c>
       <c r="F4">
-        <v>0.2626740711899914</v>
+        <v>0.5838050818178278</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0515887520981297</v>
+        <v>0.1183269686296411</v>
       </c>
       <c r="C5">
-        <v>0.1373511933772956</v>
+        <v>0.3749468204795861</v>
       </c>
       <c r="D5">
-        <v>0.03807726663693461</v>
+        <v>0.3172515219839373</v>
       </c>
       <c r="E5">
-        <v>0.1951339709966838</v>
+        <v>0.563250851738315</v>
       </c>
       <c r="F5">
-        <v>0.1973764272229122</v>
+        <v>0.5565091045686217</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03412360743610758</v>
+        <v>0.03052796929569665</v>
       </c>
       <c r="C6">
-        <v>0.1315810182071815</v>
+        <v>0.3923170207885465</v>
       </c>
       <c r="D6">
-        <v>0.02988307038476774</v>
+        <v>0.3392183943349846</v>
       </c>
       <c r="E6">
-        <v>0.1728672044801088</v>
+        <v>0.5824245825297767</v>
       </c>
       <c r="F6">
-        <v>0.1786326142932414</v>
+        <v>0.5879119750550927</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -562,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.03856004825347423</v>
+        <v>0.1229440676987344</v>
       </c>
       <c r="C7">
-        <v>0.1426784820072856</v>
+        <v>0.3639192002280563</v>
       </c>
       <c r="D7">
-        <v>0.04033731687300466</v>
+        <v>0.3218065997724393</v>
       </c>
       <c r="E7">
-        <v>0.2008415217852241</v>
+        <v>0.5672800012096666</v>
       </c>
       <c r="F7">
-        <v>0.2090615806303401</v>
+        <v>0.5599167076062078</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.06589614311488577</v>
+        <v>0.02678724024085173</v>
       </c>
       <c r="C8">
-        <v>0.08267801794971415</v>
+        <v>0.3918890428263422</v>
       </c>
       <c r="D8">
-        <v>0.01154809474451304</v>
+        <v>0.3443878750560778</v>
       </c>
       <c r="E8">
-        <v>0.107462061884709</v>
+        <v>0.5868456995293378</v>
       </c>
       <c r="F8">
-        <v>0.09298898687755791</v>
+        <v>0.5928583371096039</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -608,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03841838264255042</v>
+        <v>0.06383516716290022</v>
       </c>
       <c r="C9">
-        <v>0.03841838264255042</v>
+        <v>0.3005467402051563</v>
       </c>
       <c r="D9">
-        <v>0.001596828758587614</v>
+        <v>0.2218349939727257</v>
       </c>
       <c r="E9">
-        <v>0.03996033982072242</v>
+        <v>0.4709936241317134</v>
       </c>
       <c r="F9">
-        <v>0.01346420998712108</v>
+        <v>0.4720426389359249</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -631,19 +634,45 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02233679963354765</v>
+        <v>0.07455416172597187</v>
       </c>
       <c r="C10">
-        <v>0.02233679963354765</v>
+        <v>0.3804291969162187</v>
       </c>
       <c r="D10">
-        <v>0.0004989326178692543</v>
+        <v>0.3199665900932944</v>
       </c>
       <c r="E10">
-        <v>0.02233679963354765</v>
+        <v>0.5656558937139208</v>
+      </c>
+      <c r="F10">
+        <v>0.5673571874781979</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.04160261366545656</v>
+      </c>
+      <c r="C11">
+        <v>0.3112244733113839</v>
+      </c>
+      <c r="D11">
+        <v>0.2248588685484449</v>
+      </c>
+      <c r="E11">
+        <v>0.4741928600774635</v>
+      </c>
+      <c r="F11">
+        <v>0.4780902003259299</v>
+      </c>
+      <c r="G11">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/INVINV/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.003902179103014683</v>
+        <v>0.1335670119460798</v>
       </c>
       <c r="C2">
-        <v>0.4110727462040676</v>
+        <v>0.4099671025390884</v>
       </c>
       <c r="D2">
-        <v>0.3428415174671495</v>
+        <v>0.3509508125464788</v>
       </c>
       <c r="E2">
-        <v>0.5855267009002659</v>
+        <v>0.5924110165640734</v>
       </c>
       <c r="F2">
-        <v>0.5913398483737633</v>
+        <v>0.5841535040152176</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1114323317728629</v>
+        <v>-0.001513401759154079</v>
       </c>
       <c r="C3">
-        <v>0.3819837740696647</v>
+        <v>0.475841569153532</v>
       </c>
       <c r="D3">
-        <v>0.3070771422459426</v>
+        <v>0.4177735214472426</v>
       </c>
       <c r="E3">
-        <v>0.5541454161553108</v>
+        <v>0.6463540217614822</v>
       </c>
       <c r="F3">
-        <v>0.548336982715814</v>
+        <v>0.6543817783518403</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0253973765991602</v>
+        <v>0.1309874194782215</v>
       </c>
       <c r="C4">
-        <v>0.4132096390943262</v>
+        <v>0.4444290441430878</v>
       </c>
       <c r="D4">
-        <v>0.334517719201454</v>
+        <v>0.3749385748310419</v>
       </c>
       <c r="E4">
-        <v>0.5783750679286357</v>
+        <v>0.6123222802014</v>
       </c>
       <c r="F4">
-        <v>0.5838050818178278</v>
+        <v>0.6057678922250229</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1183269686296411</v>
+        <v>0.02600164070260688</v>
       </c>
       <c r="C5">
-        <v>0.3749468204795861</v>
+        <v>0.4864429873837449</v>
       </c>
       <c r="D5">
-        <v>0.3172515219839373</v>
+        <v>0.4097178451191367</v>
       </c>
       <c r="E5">
-        <v>0.563250851738315</v>
+        <v>0.6400920598782153</v>
       </c>
       <c r="F5">
-        <v>0.5565091045686217</v>
+        <v>0.6479243911420136</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03052796929569665</v>
+        <v>0.1413229605261863</v>
       </c>
       <c r="C6">
-        <v>0.3923170207885465</v>
+        <v>0.4406483824926739</v>
       </c>
       <c r="D6">
-        <v>0.3392183943349846</v>
+        <v>0.3914688192909578</v>
       </c>
       <c r="E6">
-        <v>0.5824245825297767</v>
+        <v>0.6256746912661225</v>
       </c>
       <c r="F6">
-        <v>0.5879119750550927</v>
+        <v>0.6176868865792924</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1229440676987344</v>
+        <v>0.0295561752036937</v>
       </c>
       <c r="C7">
-        <v>0.3639192002280563</v>
+        <v>0.4627862106754021</v>
       </c>
       <c r="D7">
-        <v>0.3218065997724393</v>
+        <v>0.4228225359431512</v>
       </c>
       <c r="E7">
-        <v>0.5672800012096666</v>
+        <v>0.6502480572390441</v>
       </c>
       <c r="F7">
-        <v>0.5599167076062078</v>
+        <v>0.6585360833922921</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.02678724024085173</v>
+        <v>0.1485433660416745</v>
       </c>
       <c r="C8">
-        <v>0.3918890428263422</v>
+        <v>0.428250065966257</v>
       </c>
       <c r="D8">
-        <v>0.3443878750560778</v>
+        <v>0.4010703637891622</v>
       </c>
       <c r="E8">
-        <v>0.5868456995293378</v>
+        <v>0.6333011635779316</v>
       </c>
       <c r="F8">
-        <v>0.5928583371096039</v>
+        <v>0.6243668417797383</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06383516716290022</v>
+        <v>0.03269697859646408</v>
       </c>
       <c r="C9">
-        <v>0.3005467402051563</v>
+        <v>0.4719153317718797</v>
       </c>
       <c r="D9">
-        <v>0.2218349939727257</v>
+        <v>0.4377743913932188</v>
       </c>
       <c r="E9">
-        <v>0.4709936241317134</v>
+        <v>0.6616452156505168</v>
       </c>
       <c r="F9">
-        <v>0.4720426389359249</v>
+        <v>0.6704845803472345</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07455416172597187</v>
+        <v>0.08764418001302933</v>
       </c>
       <c r="C10">
-        <v>0.3804291969162187</v>
+        <v>0.3538399490260787</v>
       </c>
       <c r="D10">
-        <v>0.3199665900932944</v>
+        <v>0.2806086297826358</v>
       </c>
       <c r="E10">
-        <v>0.5656558937139208</v>
+        <v>0.5297250511186306</v>
       </c>
       <c r="F10">
-        <v>0.5673571874781979</v>
+        <v>0.53028072424651</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04160261366545656</v>
+        <v>0.1097826886828203</v>
       </c>
       <c r="C11">
-        <v>0.3112244733113839</v>
+        <v>0.441331489103254</v>
       </c>
       <c r="D11">
-        <v>0.2248588685484449</v>
+        <v>0.4022870010623976</v>
       </c>
       <c r="E11">
-        <v>0.4741928600774635</v>
+        <v>0.6342609881290174</v>
       </c>
       <c r="F11">
-        <v>0.4780902003259299</v>
+        <v>0.6343733905601003</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/INVINV/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1335670119460798</v>
+        <v>-0.03509803921568627</v>
       </c>
       <c r="C2">
-        <v>0.4099671025390884</v>
+        <v>0.4809803921568628</v>
       </c>
       <c r="D2">
-        <v>0.3509508125464788</v>
+        <v>0.4637941176470588</v>
       </c>
       <c r="E2">
-        <v>0.5924110165640734</v>
+        <v>0.6810243150189711</v>
       </c>
       <c r="F2">
-        <v>0.5841535040152176</v>
+        <v>0.6868868103232719</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.001513401759154079</v>
+        <v>-0.1432</v>
       </c>
       <c r="C3">
-        <v>0.475841569153532</v>
+        <v>0.5379999999999999</v>
       </c>
       <c r="D3">
-        <v>0.4177735214472426</v>
+        <v>0.5124119999999999</v>
       </c>
       <c r="E3">
-        <v>0.6463540217614822</v>
+        <v>0.7158295886592003</v>
       </c>
       <c r="F3">
-        <v>0.6543817783518403</v>
+        <v>0.7084805241227344</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1309874194782215</v>
+        <v>-0.03999999999999999</v>
       </c>
       <c r="C4">
-        <v>0.4444290441430878</v>
+        <v>0.4955102040816328</v>
       </c>
       <c r="D4">
-        <v>0.3749385748310419</v>
+        <v>0.456461224489796</v>
       </c>
       <c r="E4">
-        <v>0.6123222802014</v>
+        <v>0.6756191415951712</v>
       </c>
       <c r="F4">
-        <v>0.6057678922250229</v>
+        <v>0.6814231431350127</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.02600164070260688</v>
+        <v>-0.1310416666666667</v>
       </c>
       <c r="C5">
-        <v>0.4864429873837449</v>
+        <v>0.5352083333333333</v>
       </c>
       <c r="D5">
-        <v>0.4097178451191367</v>
+        <v>0.4989104166666666</v>
       </c>
       <c r="E5">
-        <v>0.6400920598782153</v>
+        <v>0.7063359092292184</v>
       </c>
       <c r="F5">
-        <v>0.6479243911420136</v>
+        <v>0.7014187433666847</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1413229605261863</v>
+        <v>-0.03829787234042552</v>
       </c>
       <c r="C6">
-        <v>0.4406483824926739</v>
+        <v>0.4770212765957446</v>
       </c>
       <c r="D6">
-        <v>0.3914688192909578</v>
+        <v>0.4602893617021277</v>
       </c>
       <c r="E6">
-        <v>0.6256746912661225</v>
+        <v>0.6784462850529346</v>
       </c>
       <c r="F6">
-        <v>0.6176868865792924</v>
+        <v>0.6846875490163257</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0295561752036937</v>
+        <v>-0.1304347826086956</v>
       </c>
       <c r="C7">
-        <v>0.4627862106754021</v>
+        <v>0.5034782608695652</v>
       </c>
       <c r="D7">
-        <v>0.4228225359431512</v>
+        <v>0.4911652173913044</v>
       </c>
       <c r="E7">
-        <v>0.6502480572390441</v>
+        <v>0.7008318039239546</v>
       </c>
       <c r="F7">
-        <v>0.6585360833922921</v>
+        <v>0.6961958744866088</v>
       </c>
       <c r="G7">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1485433660416745</v>
+        <v>-0.04133333333333333</v>
       </c>
       <c r="C8">
-        <v>0.428250065966257</v>
+        <v>0.4848888888888888</v>
       </c>
       <c r="D8">
-        <v>0.4010703637891622</v>
+        <v>0.4783555555555555</v>
       </c>
       <c r="E8">
-        <v>0.6333011635779316</v>
+        <v>0.691632529278052</v>
       </c>
       <c r="F8">
-        <v>0.6243668417797383</v>
+        <v>0.698197679744068</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03269697859646408</v>
+        <v>-0.1425</v>
       </c>
       <c r="C9">
-        <v>0.4719153317718797</v>
+        <v>0.5220454545454546</v>
       </c>
       <c r="D9">
-        <v>0.4377743913932188</v>
+        <v>0.510906818181818</v>
       </c>
       <c r="E9">
-        <v>0.6616452156505168</v>
+        <v>0.7147774606000235</v>
       </c>
       <c r="F9">
-        <v>0.6704845803472345</v>
+        <v>0.7085265582325974</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08764418001302933</v>
+        <v>-0.1113953488372093</v>
       </c>
       <c r="C10">
-        <v>0.3538399490260787</v>
+        <v>0.4225581395348837</v>
       </c>
       <c r="D10">
-        <v>0.2806086297826358</v>
+        <v>0.3647790697674418</v>
       </c>
       <c r="E10">
-        <v>0.5297250511186306</v>
+        <v>0.6039694278417094</v>
       </c>
       <c r="F10">
-        <v>0.53028072424651</v>
+        <v>0.6006329256762595</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1097826886828203</v>
+        <v>-0.1119047619047619</v>
       </c>
       <c r="C11">
-        <v>0.441331489103254</v>
+        <v>0.4828571428571428</v>
       </c>
       <c r="D11">
-        <v>0.4022870010623976</v>
+        <v>0.4498904761904762</v>
       </c>
       <c r="E11">
-        <v>0.6342609881290174</v>
+        <v>0.6707387540544203</v>
       </c>
       <c r="F11">
-        <v>0.6343733905601003</v>
+        <v>0.669354396251828</v>
       </c>
       <c r="G11">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/INVINV/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1304347826086956</v>
+        <v>-0.1276315789473684</v>
       </c>
       <c r="C7">
-        <v>0.5034782608695652</v>
+        <v>0.4939473684210525</v>
       </c>
       <c r="D7">
-        <v>0.4911652173913044</v>
+        <v>0.4701500000000001</v>
       </c>
       <c r="E7">
-        <v>0.7008318039239546</v>
+        <v>0.6856748500564973</v>
       </c>
       <c r="F7">
-        <v>0.6961958744866088</v>
+        <v>0.6827347006035729</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.04133333333333333</v>
+        <v>-0.1083783783783784</v>
       </c>
       <c r="C8">
-        <v>0.4848888888888888</v>
+        <v>0.4997297297297297</v>
       </c>
       <c r="D8">
-        <v>0.4783555555555555</v>
+        <v>0.4612459459459459</v>
       </c>
       <c r="E8">
-        <v>0.691632529278052</v>
+        <v>0.6791509007179082</v>
       </c>
       <c r="F8">
-        <v>0.698197679744068</v>
+        <v>0.6796956570305465</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.1425</v>
+        <v>-0.1855</v>
       </c>
       <c r="C9">
-        <v>0.5220454545454546</v>
+        <v>0.5124999999999998</v>
       </c>
       <c r="D9">
-        <v>0.510906818181818</v>
+        <v>0.489935</v>
       </c>
       <c r="E9">
-        <v>0.7147774606000235</v>
+        <v>0.6999535698887462</v>
       </c>
       <c r="F9">
-        <v>0.7085265582325974</v>
+        <v>0.6924591950736918</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1113953488372093</v>
+        <v>-0.08615384615384616</v>
       </c>
       <c r="C10">
-        <v>0.4225581395348837</v>
+        <v>0.5569230769230769</v>
       </c>
       <c r="D10">
-        <v>0.3647790697674418</v>
+        <v>0.6175384615384615</v>
       </c>
       <c r="E10">
-        <v>0.6039694278417094</v>
+        <v>0.7858361543849083</v>
       </c>
       <c r="F10">
-        <v>0.6006329256762595</v>
+        <v>0.8129938341457297</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.1119047619047619</v>
+        <v>-0.516</v>
       </c>
       <c r="C11">
-        <v>0.4828571428571428</v>
+        <v>0.532</v>
       </c>
       <c r="D11">
-        <v>0.4498904761904762</v>
+        <v>0.5188399999999999</v>
       </c>
       <c r="E11">
-        <v>0.6707387540544203</v>
+        <v>0.7203054907468079</v>
       </c>
       <c r="F11">
-        <v>0.669354396251828</v>
+        <v>0.561898567358914</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
